--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efnb3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ephb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.282779219674573</v>
+        <v>0.071327</v>
       </c>
       <c r="H2">
-        <v>0.282779219674573</v>
+        <v>0.213981</v>
       </c>
       <c r="I2">
-        <v>0.1414981790701732</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="J2">
-        <v>0.1414981790701732</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.512220166158981</v>
+        <v>0.8299853333333332</v>
       </c>
       <c r="N2">
-        <v>0.512220166158981</v>
+        <v>2.489956</v>
       </c>
       <c r="O2">
-        <v>0.6525462514788565</v>
+        <v>0.7350786001848651</v>
       </c>
       <c r="P2">
-        <v>0.6525462514788565</v>
+        <v>0.7350786001848651</v>
       </c>
       <c r="Q2">
-        <v>0.1448452188880168</v>
+        <v>0.05920036387066666</v>
       </c>
       <c r="R2">
-        <v>0.1448452188880168</v>
+        <v>0.532803274836</v>
       </c>
       <c r="S2">
-        <v>0.09233410634332552</v>
+        <v>0.02467368687373285</v>
       </c>
       <c r="T2">
-        <v>0.09233410634332552</v>
+        <v>0.02467368687373285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,111 +593,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.282779219674573</v>
+        <v>0.071327</v>
       </c>
       <c r="H3">
-        <v>0.282779219674573</v>
+        <v>0.213981</v>
       </c>
       <c r="I3">
-        <v>0.1414981790701732</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="J3">
-        <v>0.1414981790701732</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.272735942313244</v>
+        <v>0.01102233333333333</v>
       </c>
       <c r="N3">
-        <v>0.272735942313244</v>
+        <v>0.033067</v>
       </c>
       <c r="O3">
-        <v>0.3474537485211436</v>
+        <v>0.009761957268446888</v>
       </c>
       <c r="P3">
-        <v>0.3474537485211436</v>
+        <v>0.009761957268446888</v>
       </c>
       <c r="Q3">
-        <v>0.07712405694454849</v>
+        <v>0.0007861899696666667</v>
       </c>
       <c r="R3">
-        <v>0.07712405694454849</v>
+        <v>0.007075709727</v>
       </c>
       <c r="S3">
-        <v>0.04916407272684772</v>
+        <v>0.0003276703700200824</v>
       </c>
       <c r="T3">
-        <v>0.04916407272684772</v>
+        <v>0.0003276703700200824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.71568621311615</v>
+        <v>0.071327</v>
       </c>
       <c r="H4">
-        <v>1.71568621311615</v>
+        <v>0.213981</v>
       </c>
       <c r="I4">
-        <v>0.8585018209298267</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="J4">
-        <v>0.8585018209298267</v>
+        <v>0.03356605248408491</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.512220166158981</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N4">
-        <v>0.512220166158981</v>
+        <v>0.8643099999999999</v>
       </c>
       <c r="O4">
-        <v>0.6525462514788565</v>
+        <v>0.2551594425466879</v>
       </c>
       <c r="P4">
-        <v>0.6525462514788565</v>
+        <v>0.2551594425466879</v>
       </c>
       <c r="Q4">
-        <v>0.8788090771590273</v>
+        <v>0.02054954645666666</v>
       </c>
       <c r="R4">
-        <v>0.8788090771590273</v>
+        <v>0.18494591811</v>
       </c>
       <c r="S4">
-        <v>0.560212145135531</v>
+        <v>0.008564695240331975</v>
       </c>
       <c r="T4">
-        <v>0.560212145135531</v>
+        <v>0.008564695240331974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.308223</v>
+      </c>
+      <c r="H5">
+        <v>0.9246690000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="J5">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.8299853333333332</v>
+      </c>
+      <c r="N5">
+        <v>2.489956</v>
+      </c>
+      <c r="O5">
+        <v>0.7350786001848651</v>
+      </c>
+      <c r="P5">
+        <v>0.7350786001848651</v>
+      </c>
+      <c r="Q5">
+        <v>0.255820569396</v>
+      </c>
+      <c r="R5">
+        <v>2.302385124564</v>
+      </c>
+      <c r="S5">
+        <v>0.1066215849437459</v>
+      </c>
+      <c r="T5">
+        <v>0.1066215849437459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.308223</v>
+      </c>
+      <c r="H6">
+        <v>0.9246690000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="J6">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.01102233333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.033067</v>
+      </c>
+      <c r="O6">
+        <v>0.009761957268446888</v>
+      </c>
+      <c r="P6">
+        <v>0.009761957268446888</v>
+      </c>
+      <c r="Q6">
+        <v>0.003397336647</v>
+      </c>
+      <c r="R6">
+        <v>0.030576029823</v>
+      </c>
+      <c r="S6">
+        <v>0.001415951104892956</v>
+      </c>
+      <c r="T6">
+        <v>0.001415951104892956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.308223</v>
+      </c>
+      <c r="H7">
+        <v>0.9246690000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="J7">
+        <v>0.1450478695977975</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2881033333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.8643099999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.2551594425466879</v>
+      </c>
+      <c r="P7">
+        <v>0.2551594425466879</v>
+      </c>
+      <c r="Q7">
+        <v>0.08880007371000001</v>
+      </c>
+      <c r="R7">
+        <v>0.79920066339</v>
+      </c>
+      <c r="S7">
+        <v>0.0370103335491587</v>
+      </c>
+      <c r="T7">
+        <v>0.03701033354915869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.745424333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.236273</v>
+      </c>
+      <c r="I8">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="J8">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.8299853333333332</v>
+      </c>
+      <c r="N8">
+        <v>2.489956</v>
+      </c>
+      <c r="O8">
+        <v>0.7350786001848651</v>
+      </c>
+      <c r="P8">
+        <v>0.7350786001848651</v>
+      </c>
+      <c r="Q8">
+        <v>1.448676597109777</v>
+      </c>
+      <c r="R8">
+        <v>13.038089373988</v>
+      </c>
+      <c r="S8">
+        <v>0.6037833283673865</v>
+      </c>
+      <c r="T8">
+        <v>0.6037833283673865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.71568621311615</v>
-      </c>
-      <c r="H5">
-        <v>1.71568621311615</v>
-      </c>
-      <c r="I5">
-        <v>0.8585018209298267</v>
-      </c>
-      <c r="J5">
-        <v>0.8585018209298267</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.272735942313244</v>
-      </c>
-      <c r="N5">
-        <v>0.272735942313244</v>
-      </c>
-      <c r="O5">
-        <v>0.3474537485211436</v>
-      </c>
-      <c r="P5">
-        <v>0.3474537485211436</v>
-      </c>
-      <c r="Q5">
-        <v>0.4679292960480744</v>
-      </c>
-      <c r="R5">
-        <v>0.4679292960480744</v>
-      </c>
-      <c r="S5">
-        <v>0.2982896757942959</v>
-      </c>
-      <c r="T5">
-        <v>0.2982896757942959</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.745424333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.236273</v>
+      </c>
+      <c r="I9">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="J9">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.01102233333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.033067</v>
+      </c>
+      <c r="O9">
+        <v>0.009761957268446888</v>
+      </c>
+      <c r="P9">
+        <v>0.009761957268446888</v>
+      </c>
+      <c r="Q9">
+        <v>0.01923864881011111</v>
+      </c>
+      <c r="R9">
+        <v>0.173147839291</v>
+      </c>
+      <c r="S9">
+        <v>0.008018335793533849</v>
+      </c>
+      <c r="T9">
+        <v>0.008018335793533849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.745424333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.236273</v>
+      </c>
+      <c r="I10">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="J10">
+        <v>0.8213860779181176</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2881033333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.8643099999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.2551594425466879</v>
+      </c>
+      <c r="P10">
+        <v>0.2551594425466879</v>
+      </c>
+      <c r="Q10">
+        <v>0.5028625685144444</v>
+      </c>
+      <c r="R10">
+        <v>4.525763116629999</v>
+      </c>
+      <c r="S10">
+        <v>0.2095844137571972</v>
+      </c>
+      <c r="T10">
+        <v>0.2095844137571972</v>
       </c>
     </row>
   </sheetData>
